--- a/homework/exports/task3_final_training/losses.xlsx
+++ b/homework/exports/task3_final_training/losses.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.433784045407043</v>
+        <v>1.299978051910695</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6960020896160242</v>
+        <v>0.6615139318234993</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -469,10 +469,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5181384488581792</v>
+        <v>0.5308653516150832</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4867465478001219</v>
+        <v>0.5128657032142986</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -483,10 +483,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4208041160172203</v>
+        <v>0.437592886055458</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4578057545604128</v>
+        <v>0.4565675646969766</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -497,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3905279372668348</v>
+        <v>0.4032226992431785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4130778479756731</v>
+        <v>0.4306698342164357</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -511,10 +511,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3757630901545593</v>
+        <v>0.3847995760412151</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4028300534595143</v>
+        <v>0.4225144174062844</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -525,10 +525,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3672612059054916</v>
+        <v>0.3735539766214148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3965385578798525</v>
+        <v>0.4058239374196891</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -539,10 +539,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3599002029477936</v>
+        <v>0.3652624301996428</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3856233751231974</v>
+        <v>0.3969498999191053</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -553,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3530341366824415</v>
+        <v>0.359246099681379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4135365585486094</v>
+        <v>0.380753192486185</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -567,10 +567,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.349555780592653</v>
+        <v>0.3545063125206433</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3824720933581843</v>
+        <v>0.3792463690042496</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -581,10 +581,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3448743325533326</v>
+        <v>0.3491677531774101</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3756118055545922</v>
+        <v>0.3713145364414562</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -595,10 +595,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3409237605599603</v>
+        <v>0.3459772677560852</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3656436855142767</v>
+        <v>0.3698830938700474</v>
       </c>
       <c r="D12" t="n">
         <v>11</v>
@@ -609,10 +609,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3379978630243708</v>
+        <v>0.340396905989991</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3707924688404257</v>
+        <v>0.3644215234301307</v>
       </c>
       <c r="D13" t="n">
         <v>12</v>
@@ -623,10 +623,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3336461599647385</v>
+        <v>0.3361816811807377</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3612448360883828</v>
+        <v>0.3568912410374844</v>
       </c>
       <c r="D14" t="n">
         <v>13</v>
@@ -637,10 +637,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3328314413319748</v>
+        <v>0.3331976741859594</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3585835487553568</v>
+        <v>0.3893092685576641</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
@@ -651,10 +651,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.329386467760576</v>
+        <v>0.3283074922936479</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3562617816708304</v>
+        <v>0.3543610071594065</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
@@ -665,10 +665,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3267197635063191</v>
+        <v>0.3259036183818099</v>
       </c>
       <c r="C17" t="n">
-        <v>0.35101246472561</v>
+        <v>0.3507505307594935</v>
       </c>
       <c r="D17" t="n">
         <v>16</v>
@@ -679,10 +679,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3240961229678282</v>
+        <v>0.3224865251902452</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3515269440231901</v>
+        <v>0.3759881858572816</v>
       </c>
       <c r="D18" t="n">
         <v>17</v>
@@ -693,10 +693,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3219604939734403</v>
+        <v>0.3196227653944206</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3514637369098085</v>
+        <v>0.3422582099835078</v>
       </c>
       <c r="D19" t="n">
         <v>18</v>
@@ -707,10 +707,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3194775016037459</v>
+        <v>0.3169856514666498</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3464758558706804</v>
+        <v>0.3689549763997396</v>
       </c>
       <c r="D20" t="n">
         <v>19</v>
@@ -721,10 +721,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3171524016820279</v>
+        <v>0.3146747360934097</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3389955176548524</v>
+        <v>0.3469604217644894</v>
       </c>
       <c r="D21" t="n">
         <v>20</v>
@@ -735,10 +735,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3155077011724518</v>
+        <v>0.3140122966770454</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3354481625737566</v>
+        <v>0.3361761375810161</v>
       </c>
       <c r="D22" t="n">
         <v>21</v>
@@ -749,10 +749,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3144128281123859</v>
+        <v>0.312412291765213</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3465745692903345</v>
+        <v>0.3495957291487491</v>
       </c>
       <c r="D23" t="n">
         <v>22</v>
@@ -763,10 +763,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3121281487937645</v>
+        <v>0.309870312816089</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3318652113278707</v>
+        <v>0.333072203578371</v>
       </c>
       <c r="D24" t="n">
         <v>23</v>
@@ -777,10 +777,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3105690339996233</v>
+        <v>0.3084744969798937</v>
       </c>
       <c r="C25" t="n">
-        <v>0.340581475333734</v>
+        <v>0.3351076353680004</v>
       </c>
       <c r="D25" t="n">
         <v>24</v>
@@ -791,10 +791,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3083898680623864</v>
+        <v>0.3093137707292419</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3321217348178228</v>
+        <v>0.3301587222200452</v>
       </c>
       <c r="D26" t="n">
         <v>25</v>
